--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Fgf17-Fgfr2.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Fgf17-Fgfr2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,6 +82,9 @@
     <t>MuSCs</t>
   </si>
   <si>
+    <t>Resolving-Mac</t>
+  </si>
+  <si>
     <t>Fgf17</t>
   </si>
   <si>
@@ -89,9 +92,6 @@
   </si>
   <si>
     <t>ECs</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
   </si>
 </sst>
 </file>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T9"/>
+  <dimension ref="A1:T10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,13 +522,13 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E2">
         <v>3</v>
@@ -540,43 +540,43 @@
         <v>1.430739666666667</v>
       </c>
       <c r="H2">
-        <v>4.292219</v>
+        <v>4.292218999999999</v>
       </c>
       <c r="I2">
-        <v>0.7530926191740722</v>
+        <v>0.7311024264480693</v>
       </c>
       <c r="J2">
-        <v>0.7530926191740721</v>
+        <v>0.7311024264480693</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>0.7050016666666666</v>
+        <v>1.414593</v>
       </c>
       <c r="N2">
-        <v>2.115005</v>
+        <v>4.243779</v>
       </c>
       <c r="O2">
-        <v>0.2162043499394578</v>
+        <v>0.3478871232761722</v>
       </c>
       <c r="P2">
-        <v>0.2162043499394578</v>
+        <v>0.3478871232761722</v>
       </c>
       <c r="Q2">
-        <v>1.008673849566111</v>
+        <v>2.023914317289</v>
       </c>
       <c r="R2">
-        <v>9.078064646095001</v>
+        <v>18.215228855601</v>
       </c>
       <c r="S2">
-        <v>0.1628219001727339</v>
+        <v>0.2543411199572481</v>
       </c>
       <c r="T2">
-        <v>0.1628219001727339</v>
+        <v>0.2543411199572481</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,10 +584,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
         <v>20</v>
@@ -602,13 +602,13 @@
         <v>1.430739666666667</v>
       </c>
       <c r="H3">
-        <v>4.292219</v>
+        <v>4.292218999999999</v>
       </c>
       <c r="I3">
-        <v>0.7530926191740722</v>
+        <v>0.7311024264480693</v>
       </c>
       <c r="J3">
-        <v>0.7530926191740721</v>
+        <v>0.7311024264480693</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>7.012461999999999</v>
       </c>
       <c r="O3">
-        <v>0.716842176819984</v>
+        <v>0.5748520910875596</v>
       </c>
       <c r="P3">
-        <v>0.716842176819984</v>
+        <v>0.5748520910875596</v>
       </c>
       <c r="Q3">
-        <v>3.344335848130889</v>
+        <v>3.344335848130888</v>
       </c>
       <c r="R3">
-        <v>30.099022633178</v>
+        <v>30.09902263317799</v>
       </c>
       <c r="S3">
-        <v>0.5398485524758051</v>
+        <v>0.4202757586428614</v>
       </c>
       <c r="T3">
-        <v>0.5398485524758051</v>
+        <v>0.4202757586428614</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,10 +646,10 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D4" t="s">
         <v>21</v>
@@ -664,13 +664,13 @@
         <v>1.430739666666667</v>
       </c>
       <c r="H4">
-        <v>4.292219</v>
+        <v>4.292218999999999</v>
       </c>
       <c r="I4">
-        <v>0.7530926191740722</v>
+        <v>0.7311024264480693</v>
       </c>
       <c r="J4">
-        <v>0.7530926191740721</v>
+        <v>0.7311024264480693</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,90 +679,90 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.2112013333333334</v>
+        <v>0.314161</v>
       </c>
       <c r="N4">
-        <v>0.6336040000000001</v>
+        <v>0.942483</v>
       </c>
       <c r="O4">
-        <v>0.0647695589083904</v>
+        <v>0.07726078563626818</v>
       </c>
       <c r="P4">
-        <v>0.06476955890839041</v>
+        <v>0.07726078563626819</v>
       </c>
       <c r="Q4">
-        <v>0.3021741252528889</v>
+        <v>0.4494826044196666</v>
       </c>
       <c r="R4">
-        <v>2.719567127276</v>
+        <v>4.045343439777</v>
       </c>
       <c r="S4">
-        <v>0.04877747676106908</v>
+        <v>0.0564855478479598</v>
       </c>
       <c r="T4">
-        <v>0.04877747676106909</v>
+        <v>0.05648554784795982</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D5" t="s">
         <v>25</v>
       </c>
       <c r="E5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>1.430739666666667</v>
+        <v>0.4223926666666666</v>
       </c>
       <c r="H5">
-        <v>4.292219</v>
+        <v>1.267178</v>
       </c>
       <c r="I5">
-        <v>0.7530926191740722</v>
+        <v>0.2158410161600821</v>
       </c>
       <c r="J5">
-        <v>0.7530926191740721</v>
+        <v>0.2158410161600822</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>0.007121333333333333</v>
+        <v>1.414593</v>
       </c>
       <c r="N5">
-        <v>0.021364</v>
+        <v>4.243779</v>
       </c>
       <c r="O5">
-        <v>0.002183914332167809</v>
+        <v>0.3478871232761722</v>
       </c>
       <c r="P5">
-        <v>0.002183914332167809</v>
+        <v>0.3478871232761722</v>
       </c>
       <c r="Q5">
-        <v>0.01018877407955556</v>
+        <v>0.597513709518</v>
       </c>
       <c r="R5">
-        <v>0.09169896671599999</v>
+        <v>5.377623385662</v>
       </c>
       <c r="S5">
-        <v>0.00164468976446405</v>
+        <v>0.07508831019693676</v>
       </c>
       <c r="T5">
-        <v>0.00164468976446405</v>
+        <v>0.07508831019693678</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -770,13 +770,13 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D6" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E6">
         <v>2</v>
@@ -785,46 +785,46 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G6">
-        <v>0.4690793333333333</v>
+        <v>0.4223926666666666</v>
       </c>
       <c r="H6">
-        <v>1.407238</v>
+        <v>1.267178</v>
       </c>
       <c r="I6">
-        <v>0.2469073808259278</v>
+        <v>0.2158410161600821</v>
       </c>
       <c r="J6">
-        <v>0.2469073808259278</v>
+        <v>0.2158410161600822</v>
       </c>
       <c r="K6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L6">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M6">
-        <v>0.7050016666666666</v>
+        <v>2.337487333333333</v>
       </c>
       <c r="N6">
-        <v>2.115005</v>
+        <v>7.012461999999999</v>
       </c>
       <c r="O6">
-        <v>0.2162043499394578</v>
+        <v>0.5748520910875596</v>
       </c>
       <c r="P6">
-        <v>0.2162043499394578</v>
+        <v>0.5748520910875596</v>
       </c>
       <c r="Q6">
-        <v>0.3307017117988889</v>
+        <v>0.9873375080262221</v>
       </c>
       <c r="R6">
-        <v>2.97631540619</v>
+        <v>8.886037572235999</v>
       </c>
       <c r="S6">
-        <v>0.05338244976672386</v>
+        <v>0.124076659482087</v>
       </c>
       <c r="T6">
-        <v>0.05338244976672387</v>
+        <v>0.124076659482087</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -832,13 +832,13 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E7">
         <v>2</v>
@@ -847,16 +847,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G7">
-        <v>0.4690793333333333</v>
+        <v>0.4223926666666666</v>
       </c>
       <c r="H7">
-        <v>1.407238</v>
+        <v>1.267178</v>
       </c>
       <c r="I7">
-        <v>0.2469073808259278</v>
+        <v>0.2158410161600821</v>
       </c>
       <c r="J7">
-        <v>0.2469073808259278</v>
+        <v>0.2158410161600822</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -865,60 +865,60 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>2.337487333333333</v>
+        <v>0.314161</v>
       </c>
       <c r="N7">
-        <v>7.012461999999999</v>
+        <v>0.942483</v>
       </c>
       <c r="O7">
-        <v>0.716842176819984</v>
+        <v>0.07726078563626818</v>
       </c>
       <c r="P7">
-        <v>0.716842176819984</v>
+        <v>0.07726078563626819</v>
       </c>
       <c r="Q7">
-        <v>1.096466999995111</v>
+        <v>0.1326993025526667</v>
       </c>
       <c r="R7">
-        <v>9.868202999955999</v>
+        <v>1.194293722974</v>
       </c>
       <c r="S7">
-        <v>0.1769936243441788</v>
+        <v>0.0166760464810584</v>
       </c>
       <c r="T7">
-        <v>0.1769936243441788</v>
+        <v>0.0166760464810584</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D8" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F8">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G8">
-        <v>0.4690793333333333</v>
+        <v>0.1038296666666667</v>
       </c>
       <c r="H8">
-        <v>1.407238</v>
+        <v>0.311489</v>
       </c>
       <c r="I8">
-        <v>0.2469073808259278</v>
+        <v>0.05305655739184852</v>
       </c>
       <c r="J8">
-        <v>0.2469073808259278</v>
+        <v>0.05305655739184854</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,90 +927,152 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.2112013333333334</v>
+        <v>1.414593</v>
       </c>
       <c r="N8">
-        <v>0.6336040000000001</v>
+        <v>4.243779</v>
       </c>
       <c r="O8">
-        <v>0.0647695589083904</v>
+        <v>0.3478871232761722</v>
       </c>
       <c r="P8">
-        <v>0.06476955890839041</v>
+        <v>0.3478871232761722</v>
       </c>
       <c r="Q8">
-        <v>0.09907018063911112</v>
+        <v>0.146876719659</v>
       </c>
       <c r="R8">
-        <v>0.8916316257520001</v>
+        <v>1.321890476931</v>
       </c>
       <c r="S8">
-        <v>0.01599208214732131</v>
+        <v>0.01845769312198731</v>
       </c>
       <c r="T8">
-        <v>0.01599208214732131</v>
+        <v>0.01845769312198732</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
+        <v>20</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G9">
+        <v>0.1038296666666667</v>
+      </c>
+      <c r="H9">
+        <v>0.311489</v>
+      </c>
+      <c r="I9">
+        <v>0.05305655739184852</v>
+      </c>
+      <c r="J9">
+        <v>0.05305655739184854</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>2.337487333333333</v>
+      </c>
+      <c r="N9">
+        <v>7.012461999999999</v>
+      </c>
+      <c r="O9">
+        <v>0.5748520910875596</v>
+      </c>
+      <c r="P9">
+        <v>0.5748520910875596</v>
+      </c>
+      <c r="Q9">
+        <v>0.2427005306575555</v>
+      </c>
+      <c r="R9">
+        <v>2.184304775918</v>
+      </c>
+      <c r="S9">
+        <v>0.03049967296261124</v>
+      </c>
+      <c r="T9">
+        <v>0.03049967296261125</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
         <v>21</v>
       </c>
-      <c r="B9" t="s">
-        <v>22</v>
-      </c>
-      <c r="C9" t="s">
-        <v>23</v>
-      </c>
-      <c r="D9" t="s">
-        <v>25</v>
-      </c>
-      <c r="E9">
-        <v>2</v>
-      </c>
-      <c r="F9">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G9">
-        <v>0.4690793333333333</v>
-      </c>
-      <c r="H9">
-        <v>1.407238</v>
-      </c>
-      <c r="I9">
-        <v>0.2469073808259278</v>
-      </c>
-      <c r="J9">
-        <v>0.2469073808259278</v>
-      </c>
-      <c r="K9">
-        <v>1</v>
-      </c>
-      <c r="L9">
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
         <v>0.3333333333333333</v>
       </c>
-      <c r="M9">
-        <v>0.007121333333333333</v>
-      </c>
-      <c r="N9">
-        <v>0.021364</v>
-      </c>
-      <c r="O9">
-        <v>0.002183914332167809</v>
-      </c>
-      <c r="P9">
-        <v>0.002183914332167809</v>
-      </c>
-      <c r="Q9">
-        <v>0.003340470292444444</v>
-      </c>
-      <c r="R9">
-        <v>0.030064232632</v>
-      </c>
-      <c r="S9">
-        <v>0.0005392245677037589</v>
-      </c>
-      <c r="T9">
-        <v>0.0005392245677037589</v>
+      <c r="G10">
+        <v>0.1038296666666667</v>
+      </c>
+      <c r="H10">
+        <v>0.311489</v>
+      </c>
+      <c r="I10">
+        <v>0.05305655739184852</v>
+      </c>
+      <c r="J10">
+        <v>0.05305655739184854</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>0.314161</v>
+      </c>
+      <c r="N10">
+        <v>0.942483</v>
+      </c>
+      <c r="O10">
+        <v>0.07726078563626818</v>
+      </c>
+      <c r="P10">
+        <v>0.07726078563626819</v>
+      </c>
+      <c r="Q10">
+        <v>0.03261923190966667</v>
+      </c>
+      <c r="R10">
+        <v>0.293573087187</v>
+      </c>
+      <c r="S10">
+        <v>0.004099191307249969</v>
+      </c>
+      <c r="T10">
+        <v>0.004099191307249971</v>
       </c>
     </row>
   </sheetData>
